--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,10 +466,10 @@
 </t>
   </si>
   <si>
-    <t>A business level version identifier of the substance</t>
-  </si>
-  <si>
-    <t>A business level version identifier of the substance.</t>
+    <t>A business level identifier of the substance</t>
+  </si>
+  <si>
+    <t>A business level identifier of the substance.</t>
   </si>
   <si>
     <t>Version.Version_Number</t>
@@ -485,16 +485,10 @@
     <t>draft|active|retired|unknown</t>
   </si>
   <si>
-    <t>Status of substance within the catalogue e.g. active, retired.</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
-  </si>
-  <si>
-    <t>n/a</t>
+    <t>Status of substance within the catalogue e.g. approved.</t>
+  </si>
+  <si>
+    <t>Substance_Classification.Domain</t>
   </si>
   <si>
     <t>SubstanceDefinition.classification</t>
@@ -512,10 +506,10 @@
     <t>SubstanceDefinition.domain</t>
   </si>
   <si>
-    <t>If the substance applies to human or veterinary use</t>
-  </si>
-  <si>
-    <t>If the substance applies to human or veterinary use.</t>
+    <t>If the substance applies to only human or veterinary use</t>
+  </si>
+  <si>
+    <t>If the substance applies to only human or veterinary use.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicinal-product-domain</t>
@@ -527,19 +521,10 @@
     <t>SubstanceDefinition.grade</t>
   </si>
   <si>
-    <t>The quality standard, established benchmark, to which substance complies (e.g. USP/NF, BP)</t>
+    <t>The quality standard, established benchmark, to which substance complies (e.g. USP/NF, Ph. Eur, JP, BP, Company Standard)</t>
   </si>
   <si>
     <t>The quality standard, established benchmark, to which substance complies (e.g. USP/NF, Ph. Eur, JP, BP, Company Standard).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The quality standard, established benchmark, to which a substance complies</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-grade</t>
   </si>
   <si>
     <t>Substance_Specified_Substance_Group_3.Grade</t>
@@ -587,6 +572,9 @@
     <t>Textual comment about the substance's catalogue or registry record.</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>SubstanceDefinition.manufacturer</t>
   </si>
   <si>
@@ -594,10 +582,10 @@
 </t>
   </si>
   <si>
-    <t>The entity that creates, makes, produces or fabricates the substance</t>
-  </si>
-  <si>
-    <t>The entity that creates, makes, produces or fabricates the substance. This is a set of potential manufacturers but is not necessarily comprehensive.</t>
+    <t>A company that makes this substance</t>
+  </si>
+  <si>
+    <t>A company that makes this substance.</t>
   </si>
   <si>
     <t>SubstanceDefinition.supplier</t>
@@ -607,10 +595,10 @@
 </t>
   </si>
   <si>
-    <t>An entity that is the source for the substance. It may be different from the manufacturer</t>
-  </si>
-  <si>
-    <t>An entity that is the source for the substance. It may be different from the manufacturer. Supplier is synonymous to a distributor.</t>
+    <t>A company that supplies this substance</t>
+  </si>
+  <si>
+    <t>A company that supplies this substance.</t>
   </si>
   <si>
     <t>SubstanceDefinition.moiety</t>
@@ -709,12 +697,6 @@
     <t>Stereochemistry type.</t>
   </si>
   <si>
-    <t>The optical rotation type of a substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-stereochemistry</t>
-  </si>
-  <si>
     <t>Moiety.Stereochemistry</t>
   </si>
   <si>
@@ -727,16 +709,13 @@
     <t>Optical activity type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-optical-activity</t>
-  </si>
-  <si>
     <t>Moiety.Optical_Activity</t>
   </si>
   <si>
     <t>SubstanceDefinition.moiety.molecularFormula</t>
   </si>
   <si>
-    <t>Molecular formula for this moiety (e.g. with the Hill system)</t>
+    <t>Molecular formula for this moiety of this substance, typically using the Hill system</t>
   </si>
   <si>
     <t>Molecular formula for this moiety of this substance, typically using the Hill system.</t>
@@ -767,13 +746,7 @@
     <t>The measurement type of the quantitative value</t>
   </si>
   <si>
-    <t>The measurement type of the quantitative value. In capturing the actual relative amounts of substances or molecular fragments it may be necessary to indicate whether the amount refers to, for example, a mole ratio or weight ratio.</t>
-  </si>
-  <si>
-    <t>The relationship between two substance types.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-amount-type</t>
+    <t>The measurement type of the quantitative value.</t>
   </si>
   <si>
     <t>Amount.Amount_Type</t>
@@ -803,16 +776,10 @@
     <t>SubstanceDefinition.property.type</t>
   </si>
   <si>
-    <t>A code expressing the type of property</t>
-  </si>
-  <si>
-    <t>A code expressing the type of property.</t>
-  </si>
-  <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
+    <t>A code expressing the type of characteristic</t>
+  </si>
+  <si>
+    <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
     <t>Property.Property_Type</t>
@@ -825,10 +792,10 @@
 QuantitydatebooleanAttachment</t>
   </si>
   <si>
-    <t>A value for the property</t>
-  </si>
-  <si>
-    <t>A value for the property.</t>
+    <t>A value for the characteristic</t>
+  </si>
+  <si>
+    <t>A value for the characteristic.</t>
   </si>
   <si>
     <t>Physical Characteristics, attribute's value</t>
@@ -871,34 +838,22 @@
     <t>SubstanceDefinition.molecularWeight.method</t>
   </si>
   <si>
-    <t>The method by which the weight was determined</t>
+    <t>The method by which the molecular weight was determined</t>
   </si>
   <si>
     <t>The method by which the molecular weight was determined.</t>
   </si>
   <si>
-    <t>The method by which the substance weight was measured.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-weight-method</t>
-  </si>
-  <si>
     <t>Molecular_Weight.Molecular_Weight_Method</t>
   </si>
   <si>
     <t>SubstanceDefinition.molecularWeight.type</t>
   </si>
   <si>
-    <t>Type of molecular weight e.g. exact, average, weight average</t>
+    <t>Type of molecular weight such as exact, average (also known as. number average), weight average</t>
   </si>
   <si>
     <t>Type of molecular weight such as exact, average (also known as. number average), weight average.</t>
-  </si>
-  <si>
-    <t>The type of substance weight measurement.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-weight-type</t>
   </si>
   <si>
     <t>Molecular_Weight.Molecular_Weight_Type</t>
@@ -911,7 +866,7 @@
 </t>
   </si>
   <si>
-    <t>Used to capture quantitative values for a variety of elements</t>
+    <t>Used to capture quantitative values for a variety of elements. If only limits are given, the arithmetic mean would be the average. If only a single definite value for a given element is given, it would be captured in this field</t>
   </si>
   <si>
     <t>Used to capture quantitative values for a variety of elements. If only limits are given, the arithmetic mean would be the average. If only a single definite value for a given element is given, it would be captured in this field.</t>
@@ -953,7 +908,7 @@
     <t>SubstanceDefinition.structure.molecularFormula</t>
   </si>
   <si>
-    <t>Molecular formula (e.g. using the Hill system)</t>
+    <t>Molecular formula of this substance, typically using the Hill system</t>
   </si>
   <si>
     <t>Molecular formula of this substance, typically using the Hill system.</t>
@@ -965,7 +920,7 @@
     <t>SubstanceDefinition.structure.molecularFormulaByMoiety</t>
   </si>
   <si>
-    <t>Specified per moiety according to the Hill system</t>
+    <t>Specified per moiety according to the Hill system, i.e. first C, then H, then alphabetical, each moiety separated by a dot</t>
   </si>
   <si>
     <t>Specified per moiety according to the Hill system, i.e. first C, then H, then alphabetical, each moiety separated by a dot.</t>
@@ -977,7 +932,7 @@
     <t>SubstanceDefinition.structure.molecularWeight</t>
   </si>
   <si>
-    <t>The molecular weight or weight range</t>
+    <t>The molecular weight or weight range (for proteins, polymers or nucleic acids)</t>
   </si>
   <si>
     <t>Structure.Molecular_Weight</t>
@@ -986,16 +941,10 @@
     <t>SubstanceDefinition.structure.technique</t>
   </si>
   <si>
-    <t>The method used to find the structure e.g. X-ray, NMR</t>
+    <t>The method used to elucidate the structure or characterization of the drug substance. Examples: X-ray, HPLC, NMR, Peptide mapping, Ligand binding assay</t>
   </si>
   <si>
     <t>The method used to elucidate the structure or characterization of the drug substance. Examples: X-ray, HPLC, NMR, Peptide mapping, Ligand binding assay.</t>
-  </si>
-  <si>
-    <t>The method used to elucidate the structure or characterization of the drug substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-structure-technique</t>
   </si>
   <si>
     <t>SubstanceDefinition.structure.sourceDocument</t>
@@ -1005,10 +954,10 @@
 </t>
   </si>
   <si>
-    <t>Source of information for the structure</t>
-  </si>
-  <si>
-    <t>The source of information about the structure.</t>
+    <t>Supporting literature about the source of information</t>
+  </si>
+  <si>
+    <t>Supporting literature about the source of information.</t>
   </si>
   <si>
     <t>Structure.Reference_Source</t>
@@ -1044,12 +993,6 @@
     <t>The kind of structural representation (e.g. full, partial).</t>
   </si>
   <si>
-    <t>A format of a substance representation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-representation-type</t>
-  </si>
-  <si>
     <t>Structural_Representation.Structural_Representation_Type</t>
   </si>
   <si>
@@ -1068,19 +1011,16 @@
     <t>SubstanceDefinition.structure.representation.format</t>
   </si>
   <si>
-    <t>The format of the representation e.g. InChI, SMILES, MOLFILE (note: not the physical file format)</t>
+    <t>The format of the representation e.g. InChI, SMILES, MOLFILE, CDX, SDF, PDB, mmCIF. The logical content type rather than the physical file format of a document</t>
   </si>
   <si>
     <t>The format of the representation e.g. InChI, SMILES, MOLFILE, CDX, SDF, PDB, mmCIF. The logical content type rather than the physical file format of a document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-representation-format</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.structure.representation.document</t>
   </si>
   <si>
-    <t>An attachment with the structural representation e.g. a structure graphic or AnIML file</t>
+    <t>An attached file with the structural representation or characterization e.g. a molecular structure graphic of the substance, a JCAMP or AnIML file</t>
   </si>
   <si>
     <t>An attached file with the structural representation or characterization e.g. a molecular structure graphic of the substance, a JCAMP or AnIML file.</t>
@@ -1138,10 +1078,10 @@
 </t>
   </si>
   <si>
-    <t>The date at which the code status was changed</t>
-  </si>
-  <si>
-    <t>The date at which the code status was changed as part of the terminology maintenance.</t>
+    <t>The date at which the code status is changed as part of the terminology maintenance</t>
+  </si>
+  <si>
+    <t>The date at which the code status is changed as part of the terminology maintenance.</t>
   </si>
   <si>
     <t>Substance_Code.Code_Change_Date</t>
@@ -1150,7 +1090,7 @@
     <t>SubstanceDefinition.code.note</t>
   </si>
   <si>
-    <t>Any comment can be provided in this field</t>
+    <t>Any comment can be provided in this field, if necessary</t>
   </si>
   <si>
     <t>Any comment can be provided in this field, if necessary.</t>
@@ -1195,25 +1135,19 @@
     <t>SubstanceDefinition.name.type</t>
   </si>
   <si>
-    <t>Name type e.g. 'systematic',  'scientific, 'brand'</t>
+    <t>Name type, for example 'systematic',  'scientific, 'brand'</t>
   </si>
   <si>
     <t>Name type, for example 'systematic',  'scientific, 'brand'.</t>
   </si>
   <si>
-    <t>The type of a name given to a substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-name-type</t>
-  </si>
-  <si>
     <t>Substance_Name.Substance_Name_Type</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.status</t>
   </si>
   <si>
-    <t>The status of the name e.g. 'current', 'proposed'</t>
+    <t>The status of the name, for example 'current', 'proposed'</t>
   </si>
   <si>
     <t>The status of the name, for example 'current', 'proposed'.</t>
@@ -1232,9 +1166,6 @@
     <t>If this is the preferred name for this substance.</t>
   </si>
   <si>
-    <t>If this value is not present, there is no statement being made about whether this is the preferred name or not. No inference can be made</t>
-  </si>
-  <si>
     <t>SubstanceDefinition.name.language</t>
   </si>
   <si>
@@ -1250,18 +1181,12 @@
     <t>SubstanceDefinition.name.domain</t>
   </si>
   <si>
-    <t>The use context of this name e.g. as an active ingredient or as a food colour additive</t>
+    <t>The use context of this name for example if there is a different name a drug active ingredient as opposed to a food colour additive</t>
   </si>
   <si>
     <t>The use context of this name for example if there is a different name a drug active ingredient as opposed to a food colour additive.</t>
   </si>
   <si>
-    <t>The use context of a substance name for example if there is a different name when used as a drug active ingredient as opposed to a food colour additive.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-name-domain</t>
-  </si>
-  <si>
     <t>Substance_Name.Substance_Name_Domain</t>
   </si>
   <si>
@@ -1274,12 +1199,6 @@
     <t>The jurisdiction where this name applies.</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
     <t>Substance_Name.Jurisdiction</t>
   </si>
   <si>
@@ -1331,22 +1250,16 @@
     <t>Which authority uses this official name.</t>
   </si>
   <si>
-    <t>An authority that officates substance names.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-name-authority</t>
-  </si>
-  <si>
     <t>Official_Name.Official_Name_Type</t>
   </si>
   <si>
     <t>SubstanceDefinition.name.official.status</t>
   </si>
   <si>
-    <t>The status of the official name, for example 'draft', 'active'</t>
-  </si>
-  <si>
-    <t>The status of the official name, for example 'draft', 'active', 'retired'.</t>
+    <t>The status of the official name, for example 'provisional', 'approved'</t>
+  </si>
+  <si>
+    <t>The status of the official name, for example 'provisional', 'approved'.</t>
   </si>
   <si>
     <t>Official_Name.Official_Name_Status</t>
@@ -1358,7 +1271,7 @@
     <t>Date of official name change</t>
   </si>
   <si>
-    <t>Date of the official name change.</t>
+    <t>Date of official name change.</t>
   </si>
   <si>
     <t>Official_Name.Official_Name_Status_Change_Date</t>
@@ -1373,7 +1286,7 @@
     <t>SubstanceDefinition.relationship</t>
   </si>
   <si>
-    <t>A link between this substance and another</t>
+    <t>A link between this substance and another, with details of the relationship</t>
   </si>
   <si>
     <t>A link between this substance and another, with details of the relationship.</t>
@@ -1398,7 +1311,7 @@
 CodeableConcept</t>
   </si>
   <si>
-    <t>A pointer to another substance, as a resource or a representational code</t>
+    <t>A pointer to another substance, as a resource or just a representational code</t>
   </si>
   <si>
     <t>A pointer to another substance, as a resource or just a representational code.</t>
@@ -1410,28 +1323,22 @@
     <t>SubstanceDefinition.relationship.type</t>
   </si>
   <si>
-    <t>For example "salt to parent", "active moiety"</t>
+    <t>For example "salt to parent", "active moiety", "starting material", "polymorph", "impurity of"</t>
   </si>
   <si>
     <t>For example "salt to parent", "active moiety", "starting material", "polymorph", "impurity of".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-relationship-type</t>
-  </si>
-  <si>
     <t>Substance_Relationship.Relationship_Type</t>
   </si>
   <si>
     <t>SubstanceDefinition.relationship.isDefining</t>
   </si>
   <si>
-    <t>For example where an enzyme strongly bonds with a particular substance, this is a defining relationship for that enzyme, out of several possible relationships</t>
+    <t>For example where an enzyme strongly bonds with a particular substance, this is a defining relationship for that enzyme, out of several possible substance relationships</t>
   </si>
   <si>
     <t>For example where an enzyme strongly bonds with a particular substance, this is a defining relationship for that enzyme, out of several possible substance relationships.</t>
-  </si>
-  <si>
-    <t>If this value is not present, there is no statement being made about whether this is a defining relationship or not. No inference can be made</t>
   </si>
   <si>
     <t>Substance_Relationship.Is_Defining</t>
@@ -1444,7 +1351,7 @@
 Ratiostring</t>
   </si>
   <si>
-    <t>A numeric factor for the relationship, e.g. that a substance salt has some percentage of active substance in relation to some other</t>
+    <t>A numeric factor for the relationship, for instance to express that the salt of a substance has some percentage of the active substance in relation to some other</t>
   </si>
   <si>
     <t>A numeric factor for the relationship, for instance to express that the salt of a substance has some percentage of the active substance in relation to some other.</t>
@@ -1538,7 +1445,7 @@
     <t>SubstanceDefinition.sourceMaterial</t>
   </si>
   <si>
-    <t>Material or taxonomic/anatomical source</t>
+    <t>Material or taxonomic/anatomical source for the substance</t>
   </si>
   <si>
     <t>Material or taxonomic/anatomical source for the substance.</t>
@@ -1559,51 +1466,36 @@
     <t>SubstanceDefinition.sourceMaterial.type</t>
   </si>
   <si>
-    <t>Classification of the origin of the raw material. e.g. cat hair is an Animal source type</t>
+    <t>A classification that provides the origin of the raw material. Example: cat hair would be an Animal source type</t>
   </si>
   <si>
     <t>A classification that provides the origin of the raw material. Example: cat hair would be an Animal source type.</t>
   </si>
   <si>
-    <t>A classification that provides the origin of the substance raw material.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-source-material-type</t>
-  </si>
-  <si>
     <t>Source_Material.Source_Material_Type</t>
   </si>
   <si>
     <t>SubstanceDefinition.sourceMaterial.genus</t>
   </si>
   <si>
-    <t>The genus of an organism e.g. the Latin epithet of the plant/animal scientific name</t>
+    <t>The genus of an organism, typically referring to the Latin epithet of the genus element of the plant/animal scientific name</t>
   </si>
   <si>
     <t>The genus of an organism, typically referring to the Latin epithet of the genus element of the plant/animal scientific name.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-source-material-genus</t>
-  </si>
-  <si>
     <t>Source_Material.Organism.Genus</t>
   </si>
   <si>
     <t>SubstanceDefinition.sourceMaterial.species</t>
   </si>
   <si>
-    <t>The species of an organism e.g. the Latin epithet of the species of the plant/animal</t>
+    <t>The species of an organism, typically referring to the Latin epithet of the species of the plant/animal</t>
   </si>
   <si>
     <t>The species of an organism, typically referring to the Latin epithet of the species of the plant/animal.</t>
   </si>
   <si>
-    <t>A species of origin a substance raw material.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-source-material-species</t>
-  </si>
-  <si>
     <t>Source_Material.Organism.Species</t>
   </si>
   <si>
@@ -1616,9 +1508,6 @@
     <t>An anatomical origin of the source material within an organism.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-source-material-part</t>
-  </si>
-  <si>
     <t>Source_Material.Part_Description.Part</t>
   </si>
   <si>
@@ -1629,12 +1518,6 @@
   </si>
   <si>
     <t>The country or countries where the material is harvested.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/country|4.6.0</t>
   </si>
   <si>
     <t>Source_Material.Country_Of_Origin</t>
@@ -1951,7 +1834,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="146.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.09765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1964,8 +1847,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="142.90234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.41015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3337,13 +3220,13 @@
         <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>71</v>
@@ -3376,7 +3259,7 @@
         <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>71</v>
@@ -3387,7 +3270,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3413,10 +3296,10 @@
         <v>149</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3467,7 +3350,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
@@ -3482,7 +3365,7 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>71</v>
@@ -3493,7 +3376,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3519,10 +3402,10 @@
         <v>149</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3553,7 +3436,7 @@
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -3571,7 +3454,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -3586,7 +3469,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>71</v>
@@ -3597,7 +3480,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3623,10 +3506,10 @@
         <v>149</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3653,13 +3536,13 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -3677,7 +3560,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3692,7 +3575,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>71</v>
@@ -3703,7 +3586,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3726,13 +3609,13 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3783,7 +3666,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3798,7 +3681,7 @@
         <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>71</v>
@@ -3809,7 +3692,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3832,13 +3715,13 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3889,7 +3772,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3904,7 +3787,7 @@
         <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>71</v>
@@ -3915,7 +3798,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3938,13 +3821,13 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3995,7 +3878,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -4010,7 +3893,7 @@
         <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>71</v>
@@ -4021,7 +3904,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4044,13 +3927,13 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4101,7 +3984,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -4116,7 +3999,7 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
@@ -4127,7 +4010,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4150,13 +4033,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4207,7 +4090,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -4222,7 +4105,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -4233,7 +4116,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4256,13 +4139,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4313,7 +4196,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -4328,7 +4211,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -4339,7 +4222,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4365,10 +4248,10 @@
         <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4419,7 +4302,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4440,12 +4323,12 @@
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4474,7 +4357,7 @@
         <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>130</v>
@@ -4527,7 +4410,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4548,16 +4431,16 @@
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4579,10 +4462,10 @@
         <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>130</v>
@@ -4637,7 +4520,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4663,7 +4546,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4689,10 +4572,10 @@
         <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4743,7 +4626,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4758,7 +4641,7 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>71</v>
@@ -4769,7 +4652,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4795,10 +4678,10 @@
         <v>139</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4849,7 +4732,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4864,7 +4747,7 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -4875,7 +4758,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4901,10 +4784,10 @@
         <v>144</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4955,7 +4838,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4970,7 +4853,7 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>71</v>
@@ -4981,7 +4864,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5007,10 +4890,10 @@
         <v>149</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5037,13 +4920,13 @@
         <v>71</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>71</v>
@@ -5061,7 +4944,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -5076,7 +4959,7 @@
         <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>71</v>
@@ -5087,7 +4970,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5113,10 +4996,10 @@
         <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5143,13 +5026,13 @@
         <v>71</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>71</v>
@@ -5167,7 +5050,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -5182,7 +5065,7 @@
         <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>71</v>
@@ -5193,7 +5076,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5219,10 +5102,10 @@
         <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5273,7 +5156,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -5288,7 +5171,7 @@
         <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
@@ -5299,7 +5182,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5322,13 +5205,13 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5379,7 +5262,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5394,7 +5277,7 @@
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
@@ -5405,7 +5288,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5431,10 +5314,10 @@
         <v>149</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5461,13 +5344,13 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>71</v>
@@ -5485,7 +5368,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5500,7 +5383,7 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
@@ -5511,7 +5394,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5534,13 +5417,13 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5591,7 +5474,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5606,7 +5489,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
@@ -5617,7 +5500,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5643,10 +5526,10 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5697,7 +5580,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5718,12 +5601,12 @@
         <v>71</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5752,7 +5635,7 @@
         <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>130</v>
@@ -5805,7 +5688,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5826,16 +5709,16 @@
         <v>71</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5857,10 +5740,10 @@
         <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>130</v>
@@ -5915,7 +5798,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5941,7 +5824,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5967,10 +5850,10 @@
         <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5997,13 +5880,13 @@
         <v>71</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>71</v>
@@ -6021,7 +5904,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>81</v>
@@ -6036,7 +5919,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -6047,7 +5930,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6070,13 +5953,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6127,7 +6010,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -6142,7 +6025,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -6153,7 +6036,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6176,13 +6059,13 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6233,7 +6116,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6248,7 +6131,7 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -6259,7 +6142,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6282,13 +6165,13 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6339,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -6365,7 +6248,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6391,10 +6274,10 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6445,7 +6328,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6466,12 +6349,12 @@
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6500,7 +6383,7 @@
         <v>128</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>130</v>
@@ -6553,7 +6436,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6574,16 +6457,16 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6605,10 +6488,10 @@
         <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>130</v>
@@ -6663,7 +6546,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6689,7 +6572,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6715,10 +6598,10 @@
         <v>149</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6745,13 +6628,13 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6769,7 +6652,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6784,7 +6667,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
@@ -6795,7 +6678,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6821,10 +6704,10 @@
         <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6851,13 +6734,13 @@
         <v>71</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>71</v>
@@ -6875,7 +6758,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6890,7 +6773,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
@@ -6901,7 +6784,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6924,13 +6807,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6981,7 +6864,7 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>81</v>
@@ -6996,7 +6879,7 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
@@ -7007,7 +6890,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7030,13 +6913,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7087,7 +6970,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -7102,7 +6985,7 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
@@ -7113,7 +6996,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7139,10 +7022,10 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7193,7 +7076,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -7214,12 +7097,12 @@
         <v>71</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7248,7 +7131,7 @@
         <v>128</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>130</v>
@@ -7301,7 +7184,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -7322,16 +7205,16 @@
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7353,10 +7236,10 @@
         <v>127</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>130</v>
@@ -7411,7 +7294,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7437,7 +7320,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7463,10 +7346,10 @@
         <v>149</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7493,13 +7376,13 @@
         <v>71</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>71</v>
@@ -7517,7 +7400,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7532,7 +7415,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
@@ -7543,7 +7426,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7569,10 +7452,10 @@
         <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7599,13 +7482,13 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>71</v>
@@ -7623,7 +7506,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7638,7 +7521,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7649,7 +7532,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7675,10 +7558,10 @@
         <v>144</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7729,7 +7612,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7744,7 +7627,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7755,7 +7638,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7781,10 +7664,10 @@
         <v>144</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7835,7 +7718,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7850,7 +7733,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7861,7 +7744,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7887,10 +7770,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7941,7 +7824,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7956,7 +7839,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7967,7 +7850,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7993,10 +7876,10 @@
         <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8023,13 +7906,13 @@
         <v>71</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>71</v>
@@ -8047,7 +7930,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -8062,7 +7945,7 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>71</v>
@@ -8073,7 +7956,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8096,13 +7979,13 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8153,7 +8036,7 @@
         <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -8168,7 +8051,7 @@
         <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>71</v>
@@ -8179,7 +8062,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8202,13 +8085,13 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8259,7 +8142,7 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
@@ -8274,7 +8157,7 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>71</v>
@@ -8285,7 +8168,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8311,10 +8194,10 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8365,7 +8248,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -8386,12 +8269,12 @@
         <v>71</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8420,7 +8303,7 @@
         <v>128</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>130</v>
@@ -8473,7 +8356,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -8494,16 +8377,16 @@
         <v>71</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8525,10 +8408,10 @@
         <v>127</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>130</v>
@@ -8583,7 +8466,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8609,7 +8492,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8635,10 +8518,10 @@
         <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8665,13 +8548,13 @@
         <v>71</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>71</v>
@@ -8689,7 +8572,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8704,7 +8587,7 @@
         <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>71</v>
@@ -8715,7 +8598,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8741,10 +8624,10 @@
         <v>144</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8795,7 +8678,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8810,7 +8693,7 @@
         <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>71</v>
@@ -8821,7 +8704,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8847,10 +8730,10 @@
         <v>149</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8877,13 +8760,13 @@
         <v>71</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>71</v>
@@ -8901,7 +8784,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8916,7 +8799,7 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>71</v>
@@ -8927,7 +8810,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8950,13 +8833,13 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9007,7 +8890,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -9022,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>71</v>
@@ -9033,7 +8916,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9056,13 +8939,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9113,7 +8996,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -9128,7 +9011,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
@@ -9139,7 +9022,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9165,10 +9048,10 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9219,7 +9102,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -9240,12 +9123,12 @@
         <v>71</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9274,7 +9157,7 @@
         <v>128</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>130</v>
@@ -9327,7 +9210,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -9348,16 +9231,16 @@
         <v>71</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9379,10 +9262,10 @@
         <v>127</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>130</v>
@@ -9437,7 +9320,7 @@
         <v>71</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>72</v>
@@ -9463,7 +9346,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9489,10 +9372,10 @@
         <v>149</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9543,7 +9426,7 @@
         <v>71</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -9558,7 +9441,7 @@
         <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>71</v>
@@ -9569,7 +9452,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9595,10 +9478,10 @@
         <v>149</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9625,13 +9508,13 @@
         <v>71</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>71</v>
@@ -9649,7 +9532,7 @@
         <v>71</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>72</v>
@@ -9664,7 +9547,7 @@
         <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>71</v>
@@ -9675,7 +9558,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9698,13 +9581,13 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9755,7 +9638,7 @@
         <v>71</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>72</v>
@@ -9770,7 +9653,7 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>71</v>
@@ -9781,7 +9664,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9804,13 +9687,13 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9861,7 +9744,7 @@
         <v>71</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>72</v>
@@ -9876,7 +9759,7 @@
         <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>71</v>
@@ -9887,7 +9770,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9910,13 +9793,13 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9967,7 +9850,7 @@
         <v>71</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
@@ -9982,7 +9865,7 @@
         <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>71</v>
@@ -9993,7 +9876,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10016,13 +9899,13 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10073,7 +9956,7 @@
         <v>71</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -10088,7 +9971,7 @@
         <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>71</v>
@@ -10099,7 +9982,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10125,10 +10008,10 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10179,7 +10062,7 @@
         <v>71</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>72</v>
@@ -10200,12 +10083,12 @@
         <v>71</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10234,7 +10117,7 @@
         <v>128</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>130</v>
@@ -10287,7 +10170,7 @@
         <v>71</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>72</v>
@@ -10308,16 +10191,16 @@
         <v>71</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10339,10 +10222,10 @@
         <v>127</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>130</v>
@@ -10397,7 +10280,7 @@
         <v>71</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
@@ -10423,7 +10306,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10449,10 +10332,10 @@
         <v>144</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10503,7 +10386,7 @@
         <v>71</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>81</v>
@@ -10518,7 +10401,7 @@
         <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>71</v>
@@ -10529,7 +10412,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10555,10 +10438,10 @@
         <v>149</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10585,13 +10468,13 @@
         <v>71</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>71</v>
@@ -10609,7 +10492,7 @@
         <v>71</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>72</v>
@@ -10624,7 +10507,7 @@
         <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>71</v>
@@ -10635,7 +10518,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10661,10 +10544,10 @@
         <v>149</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10691,13 +10574,13 @@
         <v>71</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>71</v>
@@ -10715,7 +10598,7 @@
         <v>71</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>72</v>
@@ -10730,7 +10613,7 @@
         <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>71</v>
@@ -10741,7 +10624,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10764,22 +10647,20 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P83" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>71</v>
       </c>
@@ -10823,7 +10704,7 @@
         <v>71</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>72</v>
@@ -10838,7 +10719,7 @@
         <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>71</v>
@@ -10849,7 +10730,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10875,10 +10756,10 @@
         <v>149</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10905,13 +10786,13 @@
         <v>71</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>71</v>
@@ -10929,7 +10810,7 @@
         <v>71</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
@@ -10944,7 +10825,7 @@
         <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>71</v>
@@ -10955,7 +10836,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10981,10 +10862,10 @@
         <v>149</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11011,13 +10892,13 @@
         <v>71</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>71</v>
@@ -11035,7 +10916,7 @@
         <v>71</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
@@ -11050,7 +10931,7 @@
         <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>71</v>
@@ -11061,7 +10942,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11087,10 +10968,10 @@
         <v>149</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11117,13 +10998,13 @@
         <v>71</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>410</v>
+        <v>71</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>71</v>
@@ -11141,7 +11022,7 @@
         <v>71</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>
@@ -11156,7 +11037,7 @@
         <v>93</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>71</v>
@@ -11167,7 +11048,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11193,10 +11074,10 @@
         <v>71</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11247,7 +11128,7 @@
         <v>71</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>72</v>
@@ -11262,7 +11143,7 @@
         <v>93</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>71</v>
@@ -11273,7 +11154,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11299,10 +11180,10 @@
         <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11353,7 +11234,7 @@
         <v>71</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>72</v>
@@ -11368,7 +11249,7 @@
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>71</v>
@@ -11379,7 +11260,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11402,13 +11283,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11459,7 +11340,7 @@
         <v>71</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>72</v>
@@ -11474,7 +11355,7 @@
         <v>93</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>71</v>
@@ -11485,7 +11366,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11511,10 +11392,10 @@
         <v>83</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11565,7 +11446,7 @@
         <v>71</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>72</v>
@@ -11586,12 +11467,12 @@
         <v>71</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11620,7 +11501,7 @@
         <v>128</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>130</v>
@@ -11673,7 +11554,7 @@
         <v>71</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>72</v>
@@ -11694,16 +11575,16 @@
         <v>71</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11725,10 +11606,10 @@
         <v>127</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>130</v>
@@ -11783,7 +11664,7 @@
         <v>71</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>72</v>
@@ -11809,7 +11690,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11835,10 +11716,10 @@
         <v>149</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11865,13 +11746,13 @@
         <v>71</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>428</v>
+        <v>71</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>429</v>
+        <v>71</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>71</v>
@@ -11889,7 +11770,7 @@
         <v>71</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>72</v>
@@ -11904,7 +11785,7 @@
         <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>71</v>
@@ -11915,7 +11796,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11941,10 +11822,10 @@
         <v>149</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11971,13 +11852,13 @@
         <v>71</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>71</v>
@@ -11995,7 +11876,7 @@
         <v>71</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>72</v>
@@ -12010,7 +11891,7 @@
         <v>93</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>71</v>
@@ -12021,7 +11902,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12044,13 +11925,13 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12101,7 +11982,7 @@
         <v>71</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>72</v>
@@ -12116,7 +11997,7 @@
         <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>71</v>
@@ -12127,7 +12008,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12150,13 +12031,13 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12207,7 +12088,7 @@
         <v>71</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>72</v>
@@ -12222,7 +12103,7 @@
         <v>93</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>71</v>
@@ -12233,7 +12114,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12256,13 +12137,13 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12313,7 +12194,7 @@
         <v>71</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>72</v>
@@ -12328,7 +12209,7 @@
         <v>93</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>71</v>
@@ -12339,7 +12220,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12365,10 +12246,10 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12419,7 +12300,7 @@
         <v>71</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>72</v>
@@ -12440,12 +12321,12 @@
         <v>71</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12474,7 +12355,7 @@
         <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>130</v>
@@ -12527,7 +12408,7 @@
         <v>71</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>72</v>
@@ -12548,16 +12429,16 @@
         <v>71</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12579,10 +12460,10 @@
         <v>127</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>130</v>
@@ -12637,7 +12518,7 @@
         <v>71</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>72</v>
@@ -12663,7 +12544,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12686,13 +12567,13 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12743,7 +12624,7 @@
         <v>71</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>72</v>
@@ -12758,7 +12639,7 @@
         <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>71</v>
@@ -12769,7 +12650,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12795,10 +12676,10 @@
         <v>149</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12825,13 +12706,13 @@
         <v>71</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>456</v>
+        <v>71</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>71</v>
@@ -12849,7 +12730,7 @@
         <v>71</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>81</v>
@@ -12864,7 +12745,7 @@
         <v>93</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>71</v>
@@ -12875,7 +12756,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12898,22 +12779,20 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P103" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
         <v>71</v>
       </c>
@@ -12957,7 +12836,7 @@
         <v>71</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>72</v>
@@ -12972,7 +12851,7 @@
         <v>93</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>71</v>
@@ -12983,7 +12862,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13006,13 +12885,13 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13063,7 +12942,7 @@
         <v>71</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>72</v>
@@ -13078,7 +12957,7 @@
         <v>93</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>71</v>
@@ -13089,7 +12968,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13112,13 +12991,13 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13169,7 +13048,7 @@
         <v>71</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>72</v>
@@ -13184,7 +13063,7 @@
         <v>93</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>71</v>
@@ -13195,7 +13074,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13221,10 +13100,10 @@
         <v>149</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13251,13 +13130,13 @@
         <v>71</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>71</v>
@@ -13275,7 +13154,7 @@
         <v>71</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>72</v>
@@ -13290,7 +13169,7 @@
         <v>93</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>71</v>
@@ -13301,7 +13180,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13324,13 +13203,13 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13381,7 +13260,7 @@
         <v>71</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>72</v>
@@ -13396,7 +13275,7 @@
         <v>93</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>71</v>
@@ -13407,7 +13286,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13430,13 +13309,13 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13487,7 +13366,7 @@
         <v>71</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>72</v>
@@ -13502,7 +13381,7 @@
         <v>93</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>71</v>
@@ -13513,7 +13392,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13536,13 +13415,13 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13593,7 +13472,7 @@
         <v>71</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>72</v>
@@ -13608,7 +13487,7 @@
         <v>93</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>71</v>
@@ -13619,7 +13498,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13642,13 +13521,13 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13699,7 +13578,7 @@
         <v>71</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>72</v>
@@ -13714,7 +13593,7 @@
         <v>93</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>71</v>
@@ -13725,7 +13604,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13748,13 +13627,13 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13805,7 +13684,7 @@
         <v>71</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>72</v>
@@ -13820,7 +13699,7 @@
         <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>71</v>
@@ -13831,7 +13710,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13857,10 +13736,10 @@
         <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13911,7 +13790,7 @@
         <v>71</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>72</v>
@@ -13932,12 +13811,12 @@
         <v>71</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13966,7 +13845,7 @@
         <v>128</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>130</v>
@@ -14019,7 +13898,7 @@
         <v>71</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>72</v>
@@ -14040,16 +13919,16 @@
         <v>71</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14071,10 +13950,10 @@
         <v>127</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>130</v>
@@ -14129,7 +14008,7 @@
         <v>71</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>72</v>
@@ -14155,7 +14034,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14181,10 +14060,10 @@
         <v>149</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14211,13 +14090,13 @@
         <v>71</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>504</v>
+        <v>71</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>505</v>
+        <v>71</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>71</v>
@@ -14235,7 +14114,7 @@
         <v>71</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>72</v>
@@ -14250,7 +14129,7 @@
         <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>71</v>
@@ -14261,7 +14140,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14287,10 +14166,10 @@
         <v>149</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14317,13 +14196,13 @@
         <v>71</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>509</v>
+        <v>71</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>510</v>
+        <v>71</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>71</v>
@@ -14341,7 +14220,7 @@
         <v>71</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>72</v>
@@ -14356,7 +14235,7 @@
         <v>93</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>71</v>
@@ -14367,7 +14246,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14393,10 +14272,10 @@
         <v>149</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14423,13 +14302,13 @@
         <v>71</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>515</v>
+        <v>71</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>516</v>
+        <v>71</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>71</v>
@@ -14447,7 +14326,7 @@
         <v>71</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>72</v>
@@ -14462,7 +14341,7 @@
         <v>93</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>71</v>
@@ -14473,7 +14352,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14499,10 +14378,10 @@
         <v>149</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14529,13 +14408,13 @@
         <v>71</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>520</v>
+        <v>71</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>521</v>
+        <v>71</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>71</v>
@@ -14553,7 +14432,7 @@
         <v>71</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>72</v>
@@ -14568,7 +14447,7 @@
         <v>93</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>71</v>
@@ -14579,7 +14458,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14605,10 +14484,10 @@
         <v>149</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14635,13 +14514,13 @@
         <v>71</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>526</v>
+        <v>71</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>527</v>
+        <v>71</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>71</v>
@@ -14659,7 +14538,7 @@
         <v>71</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>72</v>
@@ -14674,7 +14553,7 @@
         <v>93</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1825,43 +1825,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="204.09765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.41015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="125.703125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/SubstanceDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/SubstanceDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -578,7 +578,7 @@
     <t>SubstanceDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>

--- a/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
+++ b/StructureDefinition-SubstanceDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
